--- a/src/main/resources/testData/TestCases.xlsx
+++ b/src/main/resources/testData/TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PATAN MUNNA\IdeaProjects\CucumberHybridFramework\src\main\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6253FBFA-91EA-4BBD-B9D7-BF5BA24A704A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD054A11-4161-46E8-B954-C9BA3CBFCB26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B8DE1AE7-181B-40F9-9E09-A4983B2523A1}"/>
   </bookViews>
@@ -486,7 +486,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -522,7 +522,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4">

--- a/src/main/resources/testData/TestCases.xlsx
+++ b/src/main/resources/testData/TestCases.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PATAN MUNNA\IdeaProjects\CucumberHybridFramework\src\main\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD054A11-4161-46E8-B954-C9BA3CBFCB26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E3333A-42CB-48BC-B0FD-822EA88DBC3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B8DE1AE7-181B-40F9-9E09-A4983B2523A1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
+    <sheet name="Testcases" sheetId="4" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -88,13 +88,25 @@
   </si>
   <si>
     <t>no</t>
+  </si>
+  <si>
+    <t>TC_ECOM_003</t>
+  </si>
+  <si>
+    <t>TC_ECOM_004</t>
+  </si>
+  <si>
+    <t>TC_ECOM_005</t>
+  </si>
+  <si>
+    <t>TC_ECOM_007</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,10 +123,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.8000000000000007"/>
-      <color theme="1"/>
-      <name val="JetBrains Mono"/>
-      <family val="3"/>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -152,22 +164,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -486,10 +492,10 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14.6328125" customWidth="1"/>
     <col min="2" max="2" width="43.36328125" customWidth="1"/>
@@ -497,97 +503,106 @@
     <col min="4" max="4" width="14.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="3" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="3" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1"/>
-      <c r="B5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1"/>
-      <c r="B6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1"/>
-      <c r="B7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/src/main/resources/testData/TestCases.xlsx
+++ b/src/main/resources/testData/TestCases.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PATAN MUNNA\IdeaProjects\CucumberHybridFramework\src\main\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6253FBFA-91EA-4BBD-B9D7-BF5BA24A704A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E3333A-42CB-48BC-B0FD-822EA88DBC3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B8DE1AE7-181B-40F9-9E09-A4983B2523A1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
+    <sheet name="Testcases" sheetId="4" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -88,13 +88,25 @@
   </si>
   <si>
     <t>no</t>
+  </si>
+  <si>
+    <t>TC_ECOM_003</t>
+  </si>
+  <si>
+    <t>TC_ECOM_004</t>
+  </si>
+  <si>
+    <t>TC_ECOM_005</t>
+  </si>
+  <si>
+    <t>TC_ECOM_007</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,10 +123,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.8000000000000007"/>
-      <color theme="1"/>
-      <name val="JetBrains Mono"/>
-      <family val="3"/>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -152,22 +164,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -486,10 +492,10 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14.6328125" customWidth="1"/>
     <col min="2" max="2" width="43.36328125" customWidth="1"/>
@@ -497,97 +503,106 @@
     <col min="4" max="4" width="14.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="3" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1"/>
-      <c r="B5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1"/>
-      <c r="B6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1"/>
-      <c r="B7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
